--- a/examples/VASP_to_thermdat/example2/references.xlsx
+++ b/examples/VASP_to_thermdat/example2/references.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\UDel Documents\UDel Research\Thermochemistry\Thermochemistry\examples\VASP_to_thermdat\example2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\UDel Documents\UDel Research\Github\PyMuTT\examples\VASP_to_thermdat\example2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E1F6A8-D0A4-49A8-AF8A-9EC133190789}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A415F6AD-BA36-4F15-BE54-3E657B8172D0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6240" xr2:uid="{717A2094-7D23-4179-A64C-DF46D5EB88E2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9540" xr2:uid="{717A2094-7D23-4179-A64C-DF46D5EB88E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="58">
   <si>
     <t>phase</t>
   </si>
@@ -75,15 +75,6 @@
     <t>propane</t>
   </si>
   <si>
-    <t>elements~C</t>
-  </si>
-  <si>
-    <t>elements~H</t>
-  </si>
-  <si>
-    <t>elements~O</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -120,144 +111,9 @@
     <t>linear</t>
   </si>
   <si>
-    <t>vib_wavenumber~1</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~2</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~3</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~4</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~5</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~6</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~7</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~8</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~9</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~10</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~11</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~12</t>
-  </si>
-  <si>
     <t>Vibrational wavenumber in 1/cm</t>
   </si>
   <si>
-    <t>vib_wavenumber~13</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~14</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~15</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~16</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~17</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~18</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~19</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~20</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~21</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~22</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~23</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~24</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~25</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~26</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~27</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~28</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~29</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~30</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~31</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~32</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~33</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~34</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~35</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~36</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~37</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~38</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~39</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~40</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~41</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~42</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~43</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~44</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~45</t>
-  </si>
-  <si>
     <t>atoms</t>
   </si>
   <si>
@@ -331,6 +187,18 @@
   </si>
   <si>
     <t>.\VASP_data\propane\CONTCAR</t>
+  </si>
+  <si>
+    <t>elements.C</t>
+  </si>
+  <si>
+    <t>elements.H</t>
+  </si>
+  <si>
+    <t>elements.O</t>
+  </si>
+  <si>
+    <t>vib_wavenumber</t>
   </si>
 </sst>
 </file>
@@ -695,364 +563,364 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5D60887-CCDF-431A-B13E-97B8E2B9730C}">
   <dimension ref="A1:BG15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AN1" s="1" t="s">
         <v>57</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G2" t="s">
-        <v>26</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.3">
@@ -1072,7 +940,7 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -1081,10 +949,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J3" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="K3">
         <v>298</v>
@@ -1152,7 +1020,7 @@
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="G4">
         <v>6</v>
@@ -1161,10 +1029,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J4" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="K4">
         <v>298</v>
@@ -1250,7 +1118,7 @@
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="G5">
         <v>12</v>
@@ -1259,10 +1127,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J5" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="K5">
         <v>298</v>
@@ -1321,7 +1189,7 @@
         <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -1330,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J6" t="s">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="K6">
         <v>298</v>
@@ -1368,7 +1236,7 @@
         <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1377,10 +1245,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J7" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="K7">
         <v>298</v>
@@ -1421,7 +1289,7 @@
         <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1430,10 +1298,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J8" t="s">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="K8">
         <v>298</v>
@@ -1564,7 +1432,7 @@
         <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -1573,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J9" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="K9">
         <v>298</v>
@@ -1680,7 +1548,7 @@
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1689,10 +1557,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J10" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="K10">
         <v>298</v>
@@ -1832,7 +1700,7 @@
         <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -1841,10 +1709,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J11" t="s">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="K11">
         <v>298</v>
@@ -1966,7 +1834,7 @@
         <v>3</v>
       </c>
       <c r="F12" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1975,10 +1843,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J12" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="K12">
         <v>298</v>
@@ -2073,7 +1941,7 @@
         <v>3</v>
       </c>
       <c r="F13" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -2082,10 +1950,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J13" t="s">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="K13">
         <v>298</v>
@@ -2252,7 +2120,7 @@
         <v>3</v>
       </c>
       <c r="F14" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -2261,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J14" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="K14">
         <v>298</v>
@@ -2395,7 +2263,7 @@
         <v>3</v>
       </c>
       <c r="F15" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -2404,10 +2272,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J15" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="K15">
         <v>298</v>

--- a/examples/VASP_to_thermdat/example2/references.xlsx
+++ b/examples/VASP_to_thermdat/example2/references.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\UDel Documents\UDel Research\Github\PyMuTT\examples\VASP_to_thermdat\example2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A415F6AD-BA36-4F15-BE54-3E657B8172D0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6BF1ED-84A0-42A3-BECD-91F839D7FE3A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9540" xr2:uid="{717A2094-7D23-4179-A64C-DF46D5EB88E2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5352" xr2:uid="{717A2094-7D23-4179-A64C-DF46D5EB88E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -135,9 +135,6 @@
     <t>Dispersion Forces in eV</t>
   </si>
   <si>
-    <t>thermo_model</t>
-  </si>
-  <si>
     <t>Type of thermodynamic model. Supported options include IdealGas and Harmonic</t>
   </si>
   <si>
@@ -199,6 +196,9 @@
   </si>
   <si>
     <t>vib_wavenumber</t>
+  </si>
+  <si>
+    <t>statmech_model</t>
   </si>
 </sst>
 </file>
@@ -563,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5D60887-CCDF-431A-B13E-97B8E2B9730C}">
   <dimension ref="A1:BG15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -574,25 +574,25 @@
         <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>24</v>
@@ -613,139 +613,139 @@
         <v>1</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:59" x14ac:dyDescent="0.3">
@@ -765,13 +765,13 @@
         <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G2" t="s">
         <v>23</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>25</v>
@@ -940,7 +940,7 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -952,7 +952,7 @@
         <v>26</v>
       </c>
       <c r="J3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K3">
         <v>298</v>
@@ -1020,7 +1020,7 @@
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G4">
         <v>6</v>
@@ -1032,7 +1032,7 @@
         <v>26</v>
       </c>
       <c r="J4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K4">
         <v>298</v>
@@ -1118,7 +1118,7 @@
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G5">
         <v>12</v>
@@ -1130,7 +1130,7 @@
         <v>26</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K5">
         <v>298</v>
@@ -1189,7 +1189,7 @@
         <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -1201,7 +1201,7 @@
         <v>27</v>
       </c>
       <c r="J6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K6">
         <v>298</v>
@@ -1236,7 +1236,7 @@
         <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1248,7 +1248,7 @@
         <v>26</v>
       </c>
       <c r="J7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K7">
         <v>298</v>
@@ -1289,7 +1289,7 @@
         <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1301,7 +1301,7 @@
         <v>26</v>
       </c>
       <c r="J8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K8">
         <v>298</v>
@@ -1432,7 +1432,7 @@
         <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -1444,7 +1444,7 @@
         <v>26</v>
       </c>
       <c r="J9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K9">
         <v>298</v>
@@ -1548,7 +1548,7 @@
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1560,7 +1560,7 @@
         <v>26</v>
       </c>
       <c r="J10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K10">
         <v>298</v>
@@ -1700,7 +1700,7 @@
         <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -1712,7 +1712,7 @@
         <v>26</v>
       </c>
       <c r="J11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K11">
         <v>298</v>
@@ -1834,7 +1834,7 @@
         <v>3</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1846,7 +1846,7 @@
         <v>26</v>
       </c>
       <c r="J12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K12">
         <v>298</v>
@@ -1941,7 +1941,7 @@
         <v>3</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -1953,7 +1953,7 @@
         <v>26</v>
       </c>
       <c r="J13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K13">
         <v>298</v>
@@ -2120,7 +2120,7 @@
         <v>3</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -2132,7 +2132,7 @@
         <v>26</v>
       </c>
       <c r="J14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K14">
         <v>298</v>
@@ -2263,7 +2263,7 @@
         <v>3</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -2275,7 +2275,7 @@
         <v>26</v>
       </c>
       <c r="J15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K15">
         <v>298</v>
